--- a/Results/Notebook 2 Example 2/Scores/problem_1_instance1_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_1_instance1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01476671561794063</v>
+        <v>0.01744091126476769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1962930252002538</v>
+        <v>0.2093036482578658</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09854850354291929</v>
+        <v>0.09767403987396309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1931481607475223</v>
+        <v>0.2875275565943013</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4861708226500308</v>
+        <v>0.4739433067654015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146379502282677</v>
+        <v>0.09561128821532201</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9585893808108338</v>
+        <v>0.9566838304586693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3666479098921908</v>
+        <v>0.3714701371556398</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8011331668817535</v>
+        <v>0.7269852369805344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5254448437984601</v>
+        <v>0.4200655772301339</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5359327242271918</v>
+        <v>0.4954537119737896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07625697837358744</v>
+        <v>0.03902275302677104</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004633665084838867</v>
+        <v>0.01023569464683533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225776195526123</v>
+        <v>0.2692729568481445</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08838063079390453</v>
+        <v>0.07346130622333351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1399074315330782</v>
+        <v>0.215916035453129</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7260890402083979</v>
+        <v>0.7337921039974529</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4686864022353002</v>
+        <v>0.5388144169382896</v>
       </c>
     </row>
   </sheetData>
